--- a/choi/액셀/기출.xlsx
+++ b/choi/액셀/기출.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
-    <sheet name="제2잡업" sheetId="2" r:id="rId2"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
     <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2잡업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2잡업!$B$14:$C$16</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">제2잡업!$B$18:$E$18</definedName>
-    <definedName name="장르">제1작업!$D$5:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
+    <definedName name="대리점">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,235 +36,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1251</t>
-  </si>
-  <si>
-    <t>D1251</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1261</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1242</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1552</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1223</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1571</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세이상 관람가능 개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션 장르 스크린수 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한산 용의 출현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비상선언</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정직한 후보2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외계인 1부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헌트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장판 헬로카봇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니언즈2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장르</t>
-  </si>
-  <si>
-    <t>장르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라마</t>
-  </si>
-  <si>
-    <t>드라마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션</t>
-  </si>
-  <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션</t>
-  </si>
-  <si>
-    <t>액션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관람가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체관람가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개봉일</t>
-  </si>
-  <si>
-    <t>개봉일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영횟수
-(단위:천회)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 스크린수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6362</t>
+  </si>
+  <si>
+    <t>A6362</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8325</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3296</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1287</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1554</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2281</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7732</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6528</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 화물량(단위:톤)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승호해문의 선박개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선박명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천곡211호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추함203호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평릉402호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백석105호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼봉902호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비천107호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해동323호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대진704호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리점</t>
+  </si>
+  <si>
+    <t>대리점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신일해운</t>
+  </si>
+  <si>
+    <t>신일해운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승호해운</t>
+  </si>
+  <si>
+    <t>승호해운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승호해운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태현이앤씨</t>
+  </si>
+  <si>
+    <t>태현이앤씨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승호해운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태현이앤씨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>항차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신일해운 선박의 항차 평균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크린수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감정포인트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영횟수
-순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체관람가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>항차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화물량
+(단위:톤)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항
+요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항일</t>
+  </si>
+  <si>
+    <t>입항일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=6000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>7월</t>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>개수 : 영화명</t>
+    <t>개수 : 선박명</t>
+  </si>
+  <si>
+    <t>평균 : 화물량(단위:톤)</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>평균 : 상영횟수(단위:천회)</t>
-  </si>
-  <si>
-    <t>A*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>추암203호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -273,9 +265,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0&quot;개&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;항차&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -564,202 +564,113 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -772,88 +683,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -862,186 +708,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <numFmt numFmtId="176" formatCode="#,##0&quot;개&quot;"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1084,9 +768,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
@@ -1099,7 +786,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>액션 및 드라마 장르 현황</a:t>
+              <a:t>신일해운 및 승호해운 모래수송선 실적</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1">
               <a:solidFill>
@@ -1117,7 +804,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -1127,9 +814,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
@@ -1151,15 +841,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>스크린수</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>화물량(단위:톤)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1173,60 +855,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$8,제1작업!$C$9,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>한산 용의 출현</c:v>
+                  <c:v>천곡211호</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>비상선언</c:v>
+                  <c:v>추암203호</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>정직한 후보2</c:v>
+                  <c:v>평릉402호</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>공조2</c:v>
+                  <c:v>백석105호</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>외계인 1부</c:v>
+                  <c:v>비천107호</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>헌트</c:v>
+                  <c:v>해동323호</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$H$5,제1작업!$H$6,제1작업!$H$8,제1작업!$H$9,제1작업!$H$10,제1작업!$H$11)</c:f>
+              <c:f>(제1작업!$H$5,제1작업!$H$6,제1작업!$H$7,제1작업!$H$8,제1작업!$H$10,제1작업!$H$11)</c:f>
               <c:numCache>
-                <c:formatCode>#,##0"개"</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2223</c:v>
+                  <c:v>7820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1734</c:v>
+                  <c:v>5064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1318</c:v>
+                  <c:v>6322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2389</c:v>
+                  <c:v>4368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1959</c:v>
+                  <c:v>3640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1625</c:v>
+                  <c:v>4325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71FF-436C-85E5-36057F52EE84}"/>
+              <c16:uniqueId val="{00000001-E761-4F76-A477-86C7C0A830CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,10 +920,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1004930239"/>
-        <c:axId val="968050431"/>
+        <c:gapWidth val="75"/>
+        <c:axId val="884783151"/>
+        <c:axId val="884783567"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1250,7 +931,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>상영횟수(단위:천회)</c:v>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>항차</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1276,129 +965,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-71FF-436C-85E5-36057F52EE84}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$8,제1작업!$C$9,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>한산 용의 출현</c:v>
+                  <c:v>천곡211호</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>비상선언</c:v>
+                  <c:v>추암203호</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>정직한 후보2</c:v>
+                  <c:v>평릉402호</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>공조2</c:v>
+                  <c:v>백석105호</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>외계인 1부</c:v>
+                  <c:v>비천107호</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>헌트</c:v>
+                  <c:v>해동323호</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$G$5,제1작업!$G$6,제1작업!$G$8,제1작업!$G$9,제1작업!$G$10,제1작업!$G$11)</c:f>
+              <c:f>(제1작업!$F$5,제1작업!$F$6,제1작업!$F$7,제1작업!$F$8,제1작업!$F$10,제1작업!$F$11)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0"항차"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>218</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,7 +1021,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71FF-436C-85E5-36057F52EE84}"/>
+              <c16:uniqueId val="{00000000-E761-4F76-A477-86C7C0A830CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1420,11 +1035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1115328975"/>
-        <c:axId val="1115326895"/>
+        <c:axId val="1054506335"/>
+        <c:axId val="1054505087"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1004930239"/>
+        <c:axId val="884783151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,10 +1053,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1467,7 +1079,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="968050431"/>
+        <c:crossAx val="884783567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="968050431"/>
+        <c:axId val="884783567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,16 +1105,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0&quot;개&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1526,18 +1136,19 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004930239"/>
+        <c:crossAx val="884783151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1115326895"/>
+        <c:axId val="1054505087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;항차&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1570,12 +1181,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115328975"/>
+        <c:crossAx val="1054506335"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1115328975"/>
+        <c:axId val="1054506335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,8 +1197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1115326895"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1054505087"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1667,7 +1278,6 @@
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -2218,7 +1828,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2227,73 +1837,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>307732</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1082187</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>255711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5546482" y="43962"/>
-          <a:ext cx="2298455" cy="548787"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
+      <xdr:colOff>10026</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:rowOff>110289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>566487</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>227135</xdr:rowOff>
+      <xdr:rowOff>235618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2302,8 +1857,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146539" y="58615"/>
-          <a:ext cx="4733192" cy="505558"/>
+          <a:off x="135355" y="110289"/>
+          <a:ext cx="3990474" cy="556461"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
@@ -2348,11 +1903,66 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>일반영화 박스오피스 현황</a:t>
+            <a:t>모래수송선 실적 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>272716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4321343" y="120316"/>
+          <a:ext cx="2297530" cy="583532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2385,85 +1995,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.6703</cdr:x>
-      <cdr:y>0.12195</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.82047</cdr:x>
-      <cdr:y>0.22336</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6238094" y="741701"/>
-          <a:ext cx="1397521" cy="616783"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -71112"/>
-            <a:gd name="adj2" fmla="val 40981"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>최대 상영횟수</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45086.404866087963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45093.436584722222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
@@ -2471,41 +2004,50 @@
     <cacheField name="코드" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="영화명" numFmtId="0">
+    <cacheField name="선박명" numFmtId="0">
       <sharedItems count="8">
-        <s v="한산 용의 출현"/>
-        <s v="비상선언"/>
-        <s v="미니언즈2"/>
-        <s v="정직한 후보2"/>
-        <s v="공조2"/>
-        <s v="외계인 1부"/>
-        <s v="헌트"/>
-        <s v="극장판 헬로카봇"/>
+        <s v="천곡211호"/>
+        <s v="추함203호"/>
+        <s v="평릉402호"/>
+        <s v="백석105호"/>
+        <s v="삼봉902호"/>
+        <s v="비천107호"/>
+        <s v="해동323호"/>
+        <s v="대진704호"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="장르" numFmtId="0">
+    <cacheField name="대리점" numFmtId="0">
       <sharedItems count="3">
-        <s v="드라마"/>
-        <s v="애니메이션"/>
-        <s v="액션"/>
+        <s v="신일해운"/>
+        <s v="승호해운"/>
+        <s v="태현이앤씨"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="관람가능" numFmtId="0">
-      <sharedItems/>
+    <cacheField name="입항항" numFmtId="0">
+      <sharedItems count="3">
+        <s v="목포"/>
+        <s v="인천"/>
+        <s v="부산"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="개봉일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-07-20T00:00:00" maxDate="2022-09-29T00:00:00" count="6">
-        <d v="2022-07-27T00:00:00"/>
-        <d v="2022-08-03T00:00:00"/>
-        <d v="2022-07-20T00:00:00"/>
-        <d v="2022-09-28T00:00:00"/>
-        <d v="2022-09-07T00:00:00"/>
-        <d v="2022-08-10T00:00:00"/>
+    <cacheField name="항차" numFmtId="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="82"/>
+    </cacheField>
+    <cacheField name="입항일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-13T00:00:00" maxDate="2023-03-05T00:00:00" count="8">
+        <d v="2023-01-13T00:00:00"/>
+        <d v="2023-03-01T00:00:00"/>
+        <d v="2023-03-04T00:00:00"/>
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-01-27T00:00:00"/>
+        <d v="2023-03-03T00:00:00"/>
+        <d v="2023-02-12T00:00:00"/>
+        <d v="2023-02-16T00:00:00"/>
       </sharedItems>
-      <fieldGroup base="4">
-        <rangePr groupBy="months" startDate="2022-07-20T00:00:00" endDate="2022-09-29T00:00:00"/>
+      <fieldGroup base="5">
+        <rangePr groupBy="months" startDate="2023-01-13T00:00:00" endDate="2023-03-05T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;2022-07-20"/>
+          <s v="&lt;2023-01-13"/>
           <s v="1월"/>
           <s v="2월"/>
           <s v="3월"/>
@@ -2518,15 +2060,12 @@
           <s v="10월"/>
           <s v="11월"/>
           <s v="12월"/>
-          <s v="&gt;2022-09-29"/>
+          <s v="&gt;2023-03-05"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="상영횟수_x000a_(단위:천회)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="257"/>
-    </cacheField>
-    <cacheField name="스크린수" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="790" maxValue="2389"/>
+    <cacheField name="화물량_x000a_(단위:톤)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2418" maxValue="7820"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2540,94 +2079,94 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="D1251"/>
+    <s v="A6362"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="12세이상"/>
     <x v="0"/>
-    <n v="218"/>
-    <n v="2223"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="7820"/>
   </r>
   <r>
-    <s v="D1261"/>
+    <s v="B8325"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="12세이상"/>
     <x v="1"/>
-    <n v="73"/>
-    <n v="1734"/>
+    <x v="1"/>
+    <n v="82"/>
+    <x v="1"/>
+    <n v="5064"/>
   </r>
   <r>
-    <s v="A2312"/>
+    <s v="C3296"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="전체관람가"/>
+    <x v="1"/>
+    <n v="11"/>
     <x v="2"/>
-    <n v="79"/>
-    <n v="1394"/>
+    <n v="6322"/>
   </r>
   <r>
-    <s v="D1242"/>
+    <s v="B1287"/>
     <x v="3"/>
     <x v="0"/>
-    <s v="12세이상"/>
+    <x v="2"/>
+    <n v="6"/>
     <x v="3"/>
-    <n v="72"/>
-    <n v="1318"/>
+    <n v="4368"/>
   </r>
   <r>
-    <s v="C1552"/>
+    <s v="B1554"/>
     <x v="4"/>
     <x v="2"/>
-    <s v="15세이상"/>
+    <x v="1"/>
+    <n v="4"/>
     <x v="4"/>
-    <n v="257"/>
-    <n v="2389"/>
+    <n v="5239"/>
   </r>
   <r>
-    <s v="C1223"/>
+    <s v="C2281"/>
     <x v="5"/>
-    <x v="2"/>
-    <s v="12세이상"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="68"/>
-    <n v="1959"/>
+    <x v="5"/>
+    <n v="3640"/>
   </r>
   <r>
-    <s v="C1571"/>
+    <s v="A7732"/>
     <x v="6"/>
-    <x v="2"/>
-    <s v="15세이상"/>
-    <x v="5"/>
-    <n v="171"/>
-    <n v="1625"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="6"/>
+    <n v="4325"/>
   </r>
   <r>
-    <s v="A2313"/>
+    <s v="A6528"/>
     <x v="7"/>
+    <x v="2"/>
     <x v="1"/>
-    <s v="전체관람가"/>
-    <x v="3"/>
-    <n v="11"/>
-    <n v="790"/>
+    <n v="48"/>
+    <x v="7"/>
+    <n v="2418"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="개봉일" colHeaderCaption="장르">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입항일" colHeaderCaption="대리점">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="9">
+        <item x="7"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -2635,12 +2174,20 @@
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
         <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="178" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -2660,21 +2207,20 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </rowFields>
   <rowItems count="4">
     <i>
-      <x v="7"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2708,8 +2254,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 영화명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 상영횟수(단위:천회)" fld="5" subtotal="average" baseField="4" baseItem="7"/>
+    <dataField name="개수 : 선박명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 화물량(단위:톤)" fld="6" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="2">
     <format dxfId="1">
@@ -2726,19 +2272,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B18:E22"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="영화명" dataDxfId="5"/>
-    <tableColumn id="2" name="장르" dataDxfId="4"/>
-    <tableColumn id="3" name="상영횟수_x000a_(단위:천회)" dataDxfId="3"/>
-    <tableColumn id="4" name="스크린수" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3004,86 +2537,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L18"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44769</v>
-      </c>
-      <c r="G5" s="12">
-        <v>218</v>
-      </c>
-      <c r="H5" s="22">
-        <v>2223</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f>CHOOSE(RIGHT(B5,1),"몰입감","즐거움","상상력")</f>
-        <v>몰입감</v>
-      </c>
-      <c r="J5" s="31" t="str">
-        <f>_xlfn.RANK.EQ(G5,$G$5:$G$12,0)&amp;"위"</f>
+      <c r="F5" s="30">
+        <v>75</v>
+      </c>
+      <c r="G5" s="22">
+        <v>44939</v>
+      </c>
+      <c r="H5" s="21">
+        <v>7820</v>
+      </c>
+      <c r="I5" s="20" t="str">
+        <f>CHOOSE(WEEKDAY(G5,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>금요일</v>
+      </c>
+      <c r="J5" s="23" t="str">
+        <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)&amp;"위"</f>
         <v>2위</v>
       </c>
     </row>
@@ -3091,91 +2626,91 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13">
-        <v>44776</v>
-      </c>
-      <c r="G6" s="14">
-        <v>73</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1734</v>
-      </c>
-      <c r="I6" s="6" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(RIGHT(B6,1),"몰입감","즐거움","상상력")</f>
-        <v>몰입감</v>
-      </c>
-      <c r="J6" s="32" t="str">
-        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(G6,$G$5:$G$12,0)&amp;"위"</f>
-        <v>5위</v>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="31">
+        <v>82</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5064</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(G6,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>수요일</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(F6,$F$5:$F$12,0)&amp;"위"</f>
+        <v>1위</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44762</v>
-      </c>
-      <c r="G7" s="14">
-        <v>79</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1394</v>
-      </c>
-      <c r="I7" s="6" t="str">
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="31">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44989</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6322</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>즐거움</v>
-      </c>
-      <c r="J7" s="32" t="str">
+        <v>토요일</v>
+      </c>
+      <c r="J7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>4위</v>
+        <v>5위</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="13">
-        <v>44832</v>
-      </c>
-      <c r="G8" s="14">
-        <v>72</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1318</v>
-      </c>
-      <c r="I8" s="6" t="str">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="31">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44978</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4368</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>즐거움</v>
-      </c>
-      <c r="J8" s="32" t="str">
+        <v>화요일</v>
+      </c>
+      <c r="J8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>6위</v>
       </c>
@@ -3184,176 +2719,174 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="13">
-        <v>44811</v>
-      </c>
-      <c r="G9" s="14">
-        <v>257</v>
-      </c>
-      <c r="H9" s="23">
-        <v>2389</v>
-      </c>
-      <c r="I9" s="6" t="str">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="31">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44953</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5239</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>즐거움</v>
-      </c>
-      <c r="J9" s="32" t="str">
+        <v>금요일</v>
+      </c>
+      <c r="J9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1위</v>
+        <v>8위</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="13">
-        <v>44762</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="31">
         <v>68</v>
       </c>
-      <c r="H10" s="23">
-        <v>1959</v>
-      </c>
-      <c r="I10" s="6" t="str">
+      <c r="G10" s="4">
+        <v>44988</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3640</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>상상력</v>
-      </c>
-      <c r="J10" s="32" t="str">
+        <v>금요일</v>
+      </c>
+      <c r="J10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>7위</v>
+        <v>3위</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="31">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44969</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4325</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>일요일</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>7위</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="32">
+        <v>48</v>
+      </c>
+      <c r="G12" s="26">
+        <v>44973</v>
+      </c>
+      <c r="H12" s="25">
+        <v>2418</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>목요일</v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>4위</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="29">
+        <f>MIN(H5:H12)</f>
+        <v>2418</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="13">
-        <v>44783</v>
-      </c>
-      <c r="G11" s="14">
-        <v>171</v>
-      </c>
-      <c r="H11" s="23">
-        <v>1625</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>몰입감</v>
-      </c>
-      <c r="J11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>3위</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="15">
-        <v>44832</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18">
+        <f>INT(DAVERAGE(B4:H12,F4,D4:D5))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="24">
-        <v>790</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>상상력</v>
-      </c>
-      <c r="J12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>8위</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="10">
-        <f>DCOUNTA(B4:H12,E4,E4:E5)</f>
-        <v>4</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="30">
-        <f>MAX(H5:H12)</f>
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="8">
-        <f>SUMIF(장르,D9,H5:H12)/COUNTIF(장르,D9)</f>
-        <v>1991</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9">
+        <f>COUNTIF(대리점,D6)</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f>VLOOKUP(H14,B4:H12,2,FALSE)</f>
-        <v>한산 용의 출현</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="12:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="2"/>
-    </row>
+      <c r="I14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="11">
+        <f>VLOOKUP(H14,B5:H12,5,FALSE)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
@@ -3361,10 +2894,10 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="F13:F14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$G5&gt;=100</formula>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$F5&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3380,335 +2913,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="11">
-        <v>44769</v>
-      </c>
-      <c r="G3" s="12">
-        <v>218</v>
-      </c>
-      <c r="H3" s="22">
-        <v>2223</v>
+      <c r="F3" s="30">
+        <v>75</v>
+      </c>
+      <c r="G3" s="22">
+        <v>44939</v>
+      </c>
+      <c r="H3" s="21">
+        <v>7820</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="13">
-        <v>44776</v>
-      </c>
-      <c r="G4" s="14">
-        <v>73</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1734</v>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="31">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5064</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13">
-        <v>44762</v>
-      </c>
-      <c r="G5" s="14">
-        <v>79</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1394</v>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="31">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44989</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6322</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13">
-        <v>44832</v>
-      </c>
-      <c r="G6" s="14">
-        <v>72</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1318</v>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="31">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44978</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4368</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44811</v>
-      </c>
-      <c r="G7" s="14">
-        <v>257</v>
-      </c>
-      <c r="H7" s="23">
-        <v>2389</v>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="31">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44953</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5239</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="13">
-        <v>44762</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="31">
         <v>68</v>
       </c>
-      <c r="H8" s="23">
-        <v>1959</v>
+      <c r="G8" s="4">
+        <v>44988</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3640</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="31">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44969</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13">
-        <v>44783</v>
-      </c>
-      <c r="G9" s="14">
-        <v>171</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="15">
-        <v>44832</v>
-      </c>
-      <c r="G10" s="16">
-        <v>11</v>
-      </c>
-      <c r="H10" s="24">
-        <v>790</v>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="32">
+        <v>48</v>
+      </c>
+      <c r="G10" s="26">
+        <v>44973</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2418</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12">
-        <v>218</v>
-      </c>
-      <c r="E19" s="36">
-        <v>2223</v>
+      <c r="D19" s="30">
+        <v>75</v>
+      </c>
+      <c r="E19" s="21">
+        <v>7820</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14">
-        <v>79</v>
-      </c>
-      <c r="E20" s="37">
-        <v>1394</v>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="31">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6322</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="14">
-        <v>257</v>
-      </c>
-      <c r="E21" s="37">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="40">
-        <v>11</v>
-      </c>
-      <c r="E22" s="41">
-        <v>790</v>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="31">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3640</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$F3&lt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3716,167 +3240,167 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="36"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>57</v>
+      <c r="B4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>68</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="39">
+        <v>5239</v>
+      </c>
+      <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="29">
-        <v>79</v>
-      </c>
-      <c r="G5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29">
-        <v>218</v>
+      <c r="F5" s="39">
+        <v>7820</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="29">
-        <v>171</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="39">
+        <v>2418</v>
+      </c>
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>4346.5</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="H6" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="G6" s="29">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29">
-        <v>73</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>257</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29">
-        <v>11</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29">
-        <v>72</v>
+      <c r="B7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="39">
+        <v>3</v>
+      </c>
+      <c r="H7" s="39">
+        <v>5008.666666666667</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="39">
+        <v>2</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3828.5</v>
+      </c>
+      <c r="E8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="29">
-        <v>165.33333333333334</v>
-      </c>
-      <c r="E8" s="29">
-        <v>2</v>
-      </c>
-      <c r="F8" s="29">
-        <v>45</v>
-      </c>
-      <c r="G8" s="29">
+      <c r="F8" s="39">
+        <v>5504.333333333333</v>
+      </c>
+      <c r="G8" s="39">
         <v>3</v>
       </c>
-      <c r="H8" s="29">
-        <v>121</v>
+      <c r="H8" s="39">
+        <v>5008.666666666667</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3885,56 +3409,155 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
     <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3942,7 +3565,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/choi/액셀/기출.xlsx
+++ b/choi/액셀/기출.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -265,7 +265,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;항차&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;항차&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -595,103 +595,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,26 +699,12 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -853,6 +839,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-909E-4F1B-8FBB-A3B0383220BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
@@ -1198,6 +1258,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1054505087"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1278,6 +1339,7 @@
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1995,6 +2057,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30872</cdr:x>
+      <cdr:y>0.14506</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43037</cdr:x>
+      <cdr:y>0.20796</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2873115" y="882234"/>
+          <a:ext cx="1132069" cy="382561"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51178"/>
+            <a:gd name="adj2" fmla="val 86990"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 화물량</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45093.436584722222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
@@ -2030,7 +2169,7 @@
         <s v="부산"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="항차" numFmtId="178">
+    <cacheField name="항차" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="82"/>
     </cacheField>
     <cacheField name="입항일" numFmtId="14">
@@ -2154,7 +2293,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입항일" colHeaderCaption="대리점">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입항일" colHeaderCaption="대리점">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2187,7 +2326,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="178" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -2563,61 +2702,61 @@
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="24">
         <v>75</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>44939</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <v>7820</v>
       </c>
-      <c r="I5" s="20" t="str">
+      <c r="I5" s="16" t="str">
         <f>CHOOSE(WEEKDAY(G5,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
         <v>금요일</v>
       </c>
-      <c r="J5" s="23" t="str">
+      <c r="J5" s="19" t="str">
         <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)&amp;"위"</f>
         <v>2위</v>
       </c>
@@ -2635,7 +2774,7 @@
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <v>82</v>
       </c>
       <c r="G6" s="4">
@@ -2666,7 +2805,7 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <v>11</v>
       </c>
       <c r="G7" s="4">
@@ -2697,7 +2836,7 @@
       <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <v>6</v>
       </c>
       <c r="G8" s="4">
@@ -2728,7 +2867,7 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <v>4</v>
       </c>
       <c r="G9" s="4">
@@ -2759,7 +2898,7 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <v>68</v>
       </c>
       <c r="G10" s="4">
@@ -2790,7 +2929,7 @@
       <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="25">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -2809,78 +2948,78 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="26">
         <v>48</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>44973</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>2418</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>목요일</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>4위</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="29">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="23">
         <f>MIN(H5:H12)</f>
         <v>2418</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18">
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="14">
         <f>INT(DAVERAGE(B4:H12,F4,D4:D5))</f>
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="7">
         <f>COUNTIF(대리점,D6)</f>
         <v>3</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f>VLOOKUP(H14,B5:H12,5,FALSE)</f>
         <v>75</v>
       </c>
@@ -2896,7 +3035,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F5&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2934,48 +3073,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="24">
         <v>75</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>44939</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>7820</v>
       </c>
     </row>
@@ -2992,7 +3131,7 @@
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="25">
         <v>82</v>
       </c>
       <c r="G4" s="4">
@@ -3015,7 +3154,7 @@
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="4">
@@ -3038,7 +3177,7 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <v>6</v>
       </c>
       <c r="G6" s="4">
@@ -3061,7 +3200,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <v>4</v>
       </c>
       <c r="G7" s="4">
@@ -3084,7 +3223,7 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <v>68</v>
       </c>
       <c r="G8" s="4">
@@ -3107,7 +3246,7 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <v>5</v>
       </c>
       <c r="G9" s="4">
@@ -3118,34 +3257,34 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="26">
         <v>48</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>44973</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="21">
         <v>2418</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3161,30 +3300,30 @@
     </row>
     <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="24">
         <v>75</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>7820</v>
       </c>
     </row>
@@ -3195,7 +3334,7 @@
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="25">
         <v>11</v>
       </c>
       <c r="E20" s="3">
@@ -3209,7 +3348,7 @@
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="25">
         <v>68</v>
       </c>
       <c r="E21" s="3">
@@ -3219,7 +3358,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$F3&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3251,155 +3390,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="39"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="30" t="s">
         <v>52</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="31">
         <v>5239</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="31">
         <v>7820</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="31" t="s">
         <v>56</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="31">
         <v>2418</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="31">
         <v>2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="31">
         <v>4346.5</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="31" t="s">
         <v>56</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="31">
         <v>3</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="31">
         <v>5008.666666666667</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="31">
         <v>2</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="31">
         <v>3828.5</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="31">
         <v>3</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="31">
         <v>5504.333333333333</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="31">
         <v>3</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="31">
         <v>5008.666666666667</v>
       </c>
       <c r="I8"/>
